--- a/server.xlsx
+++ b/server.xlsx
@@ -487,7 +487,7 @@
         <v>异常</v>
       </c>
       <c r="E5" t="str">
-        <v>异常 11542020	/u01/server_logs/jingbao-web</v>
+        <v>正常</v>
       </c>
       <c r="F5" t="str">
         <v>异常</v>
@@ -768,13 +768,13 @@
         <v>172.30.64.17</v>
       </c>
       <c r="B2" t="str">
-        <v>正常inspe_user</v>
+        <v>正常</v>
       </c>
       <c r="C2" t="str">
-        <v>正常ywja</v>
+        <v>正常</v>
       </c>
       <c r="D2" t="str">
-        <v>正常root</v>
+        <v>正常</v>
       </c>
       <c r="E2" t="str">
         <v/>
@@ -791,13 +791,13 @@
         <v>172.30.7.78</v>
       </c>
       <c r="B3" t="str">
-        <v>正常inspe_user</v>
+        <v>正常</v>
       </c>
       <c r="C3" t="str">
-        <v>正常ywja</v>
+        <v>正常</v>
       </c>
       <c r="D3" t="str">
-        <v>正常root</v>
+        <v>正常</v>
       </c>
       <c r="E3" t="str">
         <v/>
@@ -814,13 +814,13 @@
         <v>47.110.55.81</v>
       </c>
       <c r="B4" t="str">
-        <v>异常inspe_user</v>
+        <v>异常</v>
       </c>
       <c r="C4" t="str">
-        <v>异常ywja</v>
+        <v>异常</v>
       </c>
       <c r="D4" t="str">
-        <v>异常root</v>
+        <v>异常</v>
       </c>
       <c r="E4" t="str">
         <v/>
@@ -837,16 +837,16 @@
         <v>121.40.224.125</v>
       </c>
       <c r="B5" t="str">
-        <v>异常inspe_user</v>
+        <v>异常</v>
       </c>
       <c r="C5" t="str">
         <v/>
       </c>
       <c r="D5" t="str">
-        <v>异常root</v>
+        <v>异常</v>
       </c>
       <c r="E5" t="str">
-        <v>异常oracle</v>
+        <v>异常</v>
       </c>
       <c r="F5" t="str">
         <v/>
@@ -860,13 +860,13 @@
         <v>121.40.61.57</v>
       </c>
       <c r="B6" t="str">
-        <v>异常inspe_user</v>
+        <v>异常</v>
       </c>
       <c r="C6" t="str">
-        <v>异常ywja</v>
+        <v>异常</v>
       </c>
       <c r="D6" t="str">
-        <v>异常root</v>
+        <v>异常</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -883,19 +883,19 @@
         <v>47.99.194.51</v>
       </c>
       <c r="B7" t="str">
-        <v>异常inspe_user</v>
+        <v>异常</v>
       </c>
       <c r="C7" t="str">
-        <v>异常ywja</v>
+        <v>异常</v>
       </c>
       <c r="D7" t="str">
-        <v>异常root</v>
+        <v>异常</v>
       </c>
       <c r="E7" t="str">
-        <v>异常oracle</v>
+        <v>异常</v>
       </c>
       <c r="F7" t="str">
-        <v>异常ja_admin</v>
+        <v>异常</v>
       </c>
       <c r="G7" t="str">
         <v>正式服</v>
@@ -906,16 +906,16 @@
         <v>121.40.61.250</v>
       </c>
       <c r="B8" t="str">
-        <v>异常inspe_user</v>
+        <v>异常</v>
       </c>
       <c r="C8" t="str">
-        <v>异常ywja</v>
+        <v>异常</v>
       </c>
       <c r="D8" t="str">
-        <v>异常root</v>
+        <v>异常</v>
       </c>
       <c r="E8" t="str">
-        <v>异常oracle</v>
+        <v>异常</v>
       </c>
       <c r="F8" t="str">
         <v/>
@@ -929,13 +929,13 @@
         <v>172.30.64.24</v>
       </c>
       <c r="B9" t="str">
-        <v>正常inspe_user</v>
+        <v>正常</v>
       </c>
       <c r="C9" t="str">
-        <v>正常ywja</v>
+        <v>正常</v>
       </c>
       <c r="D9" t="str">
-        <v>正常root</v>
+        <v>正常</v>
       </c>
       <c r="E9" t="str">
         <v/>
@@ -952,19 +952,19 @@
         <v>47.111.8.143</v>
       </c>
       <c r="B10" t="str">
-        <v>异常inspe_user</v>
+        <v>异常</v>
       </c>
       <c r="C10" t="str">
         <v/>
       </c>
       <c r="D10" t="str">
-        <v>异常root</v>
+        <v>异常</v>
       </c>
       <c r="E10" t="str">
         <v/>
       </c>
       <c r="F10" t="str">
-        <v>异常ja_admin</v>
+        <v>异常</v>
       </c>
       <c r="G10" t="str">
         <v>非正式服</v>
@@ -975,13 +975,13 @@
         <v>172.30.64.30</v>
       </c>
       <c r="B11" t="str">
-        <v>正常inspe_user</v>
+        <v>正常</v>
       </c>
       <c r="C11" t="str">
-        <v>正常ywja</v>
+        <v>正常</v>
       </c>
       <c r="D11" t="str">
-        <v>正常root</v>
+        <v>正常</v>
       </c>
       <c r="E11" t="str">
         <v/>
@@ -998,13 +998,13 @@
         <v>172.30.64.13</v>
       </c>
       <c r="B12" t="str">
-        <v>正常inspe_user</v>
+        <v>正常</v>
       </c>
       <c r="C12" t="str">
-        <v>正常ywja</v>
+        <v>正常</v>
       </c>
       <c r="D12" t="str">
-        <v>正常root</v>
+        <v>正常</v>
       </c>
       <c r="E12" t="str">
         <v/>
@@ -1021,16 +1021,16 @@
         <v>172.30.64.12</v>
       </c>
       <c r="B13" t="str">
-        <v>正常inspe_user</v>
+        <v>正常</v>
       </c>
       <c r="C13" t="str">
-        <v>正常ywja</v>
+        <v>正常</v>
       </c>
       <c r="D13" t="str">
-        <v>正常root</v>
+        <v>正常</v>
       </c>
       <c r="E13" t="str">
-        <v>正常oracle</v>
+        <v>正常</v>
       </c>
       <c r="F13" t="str">
         <v/>
@@ -1044,13 +1044,13 @@
         <v>172.30.64.22</v>
       </c>
       <c r="B14" t="str">
-        <v>正常inspe_user</v>
+        <v>正常</v>
       </c>
       <c r="C14" t="str">
-        <v>正常ywja</v>
+        <v>正常</v>
       </c>
       <c r="D14" t="str">
-        <v>正常root</v>
+        <v>正常</v>
       </c>
       <c r="E14" t="str">
         <v/>
@@ -1070,10 +1070,10 @@
         <v/>
       </c>
       <c r="C15" t="str">
-        <v>正常ywja</v>
+        <v>正常</v>
       </c>
       <c r="D15" t="str">
-        <v>正常root</v>
+        <v>正常</v>
       </c>
       <c r="E15" t="str">
         <v/>

--- a/server.xlsx
+++ b/server.xlsx
@@ -395,7 +395,7 @@
         <v>当前用户sudo权限是否有效</v>
       </c>
       <c r="E1" t="str">
-        <v>日志目录占用的磁盘空间大小</v>
+        <v>日志目录占用的磁盘空间大小是否超出10g</v>
       </c>
       <c r="F1" t="str">
         <v>root密码有效期</v>

--- a/server.xlsx
+++ b/server.xlsx
@@ -409,10 +409,10 @@
         <v>172.30.64.17</v>
       </c>
       <c r="B2" t="str">
-        <v>30%</v>
+        <v>32%</v>
       </c>
       <c r="C2" t="str">
-        <v>29%</v>
+        <v>23%</v>
       </c>
       <c r="D2" t="str">
         <v>异常</v>
@@ -435,7 +435,7 @@
         <v>34%</v>
       </c>
       <c r="C3" t="str">
-        <v>45%</v>
+        <v>46%</v>
       </c>
       <c r="D3" t="str">
         <v>异常</v>
@@ -455,7 +455,7 @@
         <v>47.110.55.81</v>
       </c>
       <c r="B4" t="str">
-        <v>39%</v>
+        <v>38%</v>
       </c>
       <c r="C4" t="str">
         <v>11%</v>
@@ -467,7 +467,7 @@
         <v>正常</v>
       </c>
       <c r="F4" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="G4" t="str">
         <v>正式服</v>
@@ -478,10 +478,10 @@
         <v>121.40.224.125</v>
       </c>
       <c r="B5" t="str">
-        <v>23%</v>
+        <v>24%</v>
       </c>
       <c r="C5" t="str">
-        <v>53%</v>
+        <v>54%</v>
       </c>
       <c r="D5" t="str">
         <v>异常</v>
@@ -490,7 +490,7 @@
         <v>正常</v>
       </c>
       <c r="F5" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="G5" t="str">
         <v>正式服</v>
@@ -501,10 +501,10 @@
         <v>121.40.61.57</v>
       </c>
       <c r="B6" t="str">
-        <v>21%</v>
+        <v>22%</v>
       </c>
       <c r="C6" t="str">
-        <v>49%</v>
+        <v>50%</v>
       </c>
       <c r="D6" t="str">
         <v>异常</v>
@@ -513,7 +513,7 @@
         <v>正常</v>
       </c>
       <c r="F6" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="G6" t="str">
         <v>正式服</v>
@@ -524,10 +524,10 @@
         <v>47.99.194.51</v>
       </c>
       <c r="B7" t="str">
-        <v>32%</v>
+        <v>30%</v>
       </c>
       <c r="C7" t="str">
-        <v>41%</v>
+        <v>42%</v>
       </c>
       <c r="D7" t="str">
         <v>异常</v>
@@ -536,7 +536,7 @@
         <v>正常</v>
       </c>
       <c r="F7" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="G7" t="str">
         <v>正式服</v>
@@ -547,7 +547,7 @@
         <v>121.40.61.250</v>
       </c>
       <c r="B8" t="str">
-        <v>16%</v>
+        <v>15%</v>
       </c>
       <c r="C8" t="str">
         <v>25%</v>
@@ -559,7 +559,7 @@
         <v>正常</v>
       </c>
       <c r="F8" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="G8" t="str">
         <v>正式服</v>
@@ -573,7 +573,7 @@
         <v>40%</v>
       </c>
       <c r="C9" t="str">
-        <v>56%</v>
+        <v>57%</v>
       </c>
       <c r="D9" t="str">
         <v>异常</v>
@@ -593,10 +593,10 @@
         <v>47.111.8.143</v>
       </c>
       <c r="B10" t="str">
-        <v>54%</v>
+        <v>53%</v>
       </c>
       <c r="C10" t="str">
-        <v>60%</v>
+        <v>61%</v>
       </c>
       <c r="D10" t="str">
         <v>异常</v>
@@ -605,7 +605,7 @@
         <v>正常</v>
       </c>
       <c r="F10" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="G10" t="str">
         <v>非正式服</v>
@@ -619,7 +619,7 @@
         <v>29%</v>
       </c>
       <c r="C11" t="str">
-        <v>16%</v>
+        <v>17%</v>
       </c>
       <c r="D11" t="str">
         <v>异常</v>
@@ -639,10 +639,10 @@
         <v>172.30.64.13</v>
       </c>
       <c r="B12" t="str">
-        <v>14%</v>
+        <v>16%</v>
       </c>
       <c r="C12" t="str">
-        <v>39%</v>
+        <v>37%</v>
       </c>
       <c r="D12" t="str">
         <v>异常</v>
@@ -662,7 +662,7 @@
         <v>172.30.64.12</v>
       </c>
       <c r="B13" t="str">
-        <v>37%</v>
+        <v>38%</v>
       </c>
       <c r="C13" t="str">
         <v>56%</v>
@@ -685,10 +685,10 @@
         <v>172.30.64.22</v>
       </c>
       <c r="B14" t="str">
-        <v>30%</v>
+        <v>46%</v>
       </c>
       <c r="C14" t="str">
-        <v>53%</v>
+        <v>63%</v>
       </c>
       <c r="D14" t="str">
         <v>正常</v>
@@ -708,7 +708,7 @@
         <v>172.30.64.27</v>
       </c>
       <c r="B15" t="str">
-        <v>41%</v>
+        <v>43%</v>
       </c>
       <c r="C15" t="str">
         <v>40%</v>
@@ -814,13 +814,13 @@
         <v>47.110.55.81</v>
       </c>
       <c r="B4" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="C4" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="D4" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="E4" t="str">
         <v/>
@@ -837,16 +837,16 @@
         <v>121.40.224.125</v>
       </c>
       <c r="B5" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="C5" t="str">
         <v/>
       </c>
       <c r="D5" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="E5" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="F5" t="str">
         <v/>
@@ -860,13 +860,13 @@
         <v>121.40.61.57</v>
       </c>
       <c r="B6" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="C6" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="D6" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="E6" t="str">
         <v/>
@@ -883,19 +883,19 @@
         <v>47.99.194.51</v>
       </c>
       <c r="B7" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="C7" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="D7" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="E7" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="F7" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="G7" t="str">
         <v>正式服</v>
@@ -906,16 +906,16 @@
         <v>121.40.61.250</v>
       </c>
       <c r="B8" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="C8" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="D8" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="E8" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="F8" t="str">
         <v/>
@@ -952,19 +952,19 @@
         <v>47.111.8.143</v>
       </c>
       <c r="B10" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="C10" t="str">
         <v/>
       </c>
       <c r="D10" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="E10" t="str">
         <v/>
       </c>
       <c r="F10" t="str">
-        <v>异常</v>
+        <v>正常</v>
       </c>
       <c r="G10" t="str">
         <v>非正式服</v>
